--- a/time_satser_F2026.xlsx
+++ b/time_satser_F2026.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://viaucdk-my.sharepoint.com/personal/soeb_viauc_dk/Documents/05_Administration/03_Projektadministration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soeb\Github\pyportfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{FD34CA7A-54B3-4DFA-BADA-906AF15A0FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2C723A5-57A6-401E-B944-9FEA51AAC417}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA63D4C-CBAD-4A4F-8A74-03457786026E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{77157CD1-E803-4A9E-9116-80DC8204BD59}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{77157CD1-E803-4A9E-9116-80DC8204BD59}"/>
   </bookViews>
   <sheets>
     <sheet name="Timesatser_budget" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -462,23 +462,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E869D6-B50C-4B1F-BF0D-7FB17D36871F}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -517,8 +517,9 @@
       <c r="F2" s="2">
         <v>716.77</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -538,8 +539,9 @@
         <f>F2/B2*B3</f>
         <v>596.13220930050568</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -559,8 +561,9 @@
         <f>F3/B3*B4</f>
         <v>653.99975551346881</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -579,8 +582,9 @@
       <c r="F5" s="2">
         <v>529.55999999999995</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -600,8 +604,9 @@
         <f>F2/B2*B6</f>
         <v>596.13220930050568</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -620,8 +625,9 @@
       <c r="F7" s="2">
         <v>655.27</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -642,8 +648,9 @@
         <f>F2/B2*B8</f>
         <v>596.13220930050568</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -663,8 +670,9 @@
         <f>F2/B2*B9</f>
         <v>601.22563039020804</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -684,7 +692,7 @@
         <v>149954</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
   </sheetData>

--- a/time_satser_F2026.xlsx
+++ b/time_satser_F2026.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soeb\Github\pyportfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA63D4C-CBAD-4A4F-8A74-03457786026E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2391B855-9325-4482-AFDE-73E9FE1856F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{77157CD1-E803-4A9E-9116-80DC8204BD59}"/>
+    <workbookView xWindow="3015" yWindow="4290" windowWidth="38700" windowHeight="15345" activeTab="2" xr2:uid="{77157CD1-E803-4A9E-9116-80DC8204BD59}"/>
   </bookViews>
   <sheets>
     <sheet name="Timesatser_budget" sheetId="1" r:id="rId1"/>
+    <sheet name="Preallokering" sheetId="2" r:id="rId2"/>
+    <sheet name="Eksterne timer og porteføljer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t>Medarbejder</t>
   </si>
@@ -81,6 +83,12 @@
   </si>
   <si>
     <t>Project budget [DKR]</t>
+  </si>
+  <si>
+    <t>Portefølje [t]</t>
+  </si>
+  <si>
+    <t>Ekstern [t]</t>
   </si>
 </sst>
 </file>
@@ -124,10 +132,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,7 +473,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E869D6-B50C-4B1F-BF0D-7FB17D36871F}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -699,4 +710,332 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18EF24B-BB0B-4DEC-9BB4-BF764B163369}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54A1053-821C-478F-AD24-BCAD2D7E7CD8}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3">
+        <f>1315/2</f>
+        <v>657.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C6" si="0">1315/2</f>
+        <v>657.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>480</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>657.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>547</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>657.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>500</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>657.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <f>1315/2</f>
+        <v>657.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/time_satser_F2026.xlsx
+++ b/time_satser_F2026.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soeb\Github\pyportfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soeb\Documents\GitHub\pyportfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2391B855-9325-4482-AFDE-73E9FE1856F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3F0A0A-C429-404F-B0A8-C33AF0D15406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="4290" windowWidth="38700" windowHeight="15345" activeTab="2" xr2:uid="{77157CD1-E803-4A9E-9116-80DC8204BD59}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{77157CD1-E803-4A9E-9116-80DC8204BD59}"/>
   </bookViews>
   <sheets>
-    <sheet name="Timesatser_budget" sheetId="1" r:id="rId1"/>
+    <sheet name="Timesatser" sheetId="1" r:id="rId1"/>
     <sheet name="Preallokering" sheetId="2" r:id="rId2"/>
     <sheet name="Eksterne timer og porteføljer" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -473,23 +473,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E869D6-B50C-4B1F-BF0D-7FB17D36871F}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -530,7 +530,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -552,7 +552,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -574,7 +574,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -595,7 +595,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -617,7 +617,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -638,7 +638,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -661,7 +661,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -683,27 +683,27 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>369670</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>230940</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>398530</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>299881</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>149954</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
     </row>
   </sheetData>
@@ -717,20 +717,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -750,27 +750,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
+        <v>200</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
         <v>50</v>
       </c>
-      <c r="C2" s="3">
-        <v>50</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
       <c r="F2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -919,18 +919,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54A1053-821C-478F-AD24-BCAD2D7E7CD8}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -941,19 +941,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3">
         <f>1315/2</f>
         <v>657.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -965,7 +965,7 @@
         <v>657.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -977,7 +977,7 @@
         <v>657.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -989,7 +989,7 @@
         <v>657.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>657.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>657.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
